--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fall_2017\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fall_2017\ML\Proj\Machine-Learning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" xr2:uid="{2C7E0BC7-1FC7-4403-A12E-917445CA14A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="2" xr2:uid="{2C7E0BC7-1FC7-4403-A12E-917445CA14A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="links" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">links!$A$1:$A$173</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="202">
   <si>
     <t>ML Project</t>
   </si>
@@ -99,13 +104,556 @@
   </si>
   <si>
     <t xml:space="preserve">Completed Y/N </t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bhavesh09/auto-ml-trial-in-r</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kosiew/rank-averaging-script</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/loveall/stacking-lb-0-285-b2c342</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/priyasd/fork-of-notebookb4f6708e32</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/loveall/simple-stackersk-lb-0-284</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/nubeee/variable-analysis-and-visualisation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/brand-new-kinetics-forza-baseline</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/lovemegowin/test-in-axxe-ssl-ddl</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/loveall/reconstruction-of-ps-reg-03</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/heyangshnu/mofei-clicks-here-001-by-ge-men-er</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/unique-rows</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/vamshikrishnav06/stochastic-gradient</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/lalitgupta29/interactive-porto-insights-a-plot-ly-tutorial</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/nupurkamble/notebookb39d6da462</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/vanausloos/steering-wheel-of-fortune-porto-seguro-eda</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/kinetics-and-folds</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/robust-ensemble-kinetic</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kingarthur7/k-fold-cv-xgboost-example-0-28</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/amoghbadugu/notebook3037b55191</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bhavesh09/notebook64fb71f6e2</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/murphyzhang/he-yang-clicks-here-002-by-ge-men-er</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ceshine/porto-pearson-correlation-3d</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/zeenzuft/notebook-porto-1</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/arthurlpgc/random-forest-try-3-on-porto-seguro</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/priyasd/notebook1</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/manish2593/variable-correlation-analysis-using-network-graphs</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/johnoliverjones/small-bayesian-network-model-gini-score</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/dja127/exploring-the-data</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/hazarapet/simple-train</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/adish333/naive-lgb</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/scirpus/tiny-gp</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jiaxinglin420/h2o-glm-model-baseline</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/xtreme/xgboost-porto-sequor</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/selvaraj/simple-eda</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/fabioluciani/first-submission</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/themachine/why-keras-appraoch-score-less-than-xgb</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/duanerich/training-test-set-overlap-target-cond-densities</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/numberswithkartik/seguro-s-are-you-serious</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ezietsman/simple-python-lightgbm-example</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kingarthur7/another-approach-to-calculate-gini</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/adarsh1kumar/learn</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/weegee/python-based-eda-of-porto-seguro-s-dataset</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/robust-ensemble-stacked</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/plarmuseau/standard-notebook</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/taran8727/approach-for-beginners-1-glmnet-model</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bhavesh09/targetexploration</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jeffstahler/pair-plot-of-numerical-attributes</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/weizhezhang/basic-xgb</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jeffstahler/pair-plot-swarm-plot</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ashutosh7/gbm-oversampling-0-273</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/sinaasappel/exploring-porto-seguro-s-safe-driver-prediction</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jatinsaini214/really-safe-driver</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/hazarapet/investigation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/emenriquez/data-exploration-using-plot-ly-visualization-tools</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/zeus75/porto-seguro-visualization</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/eoakley/porto-seguro-lightgbm</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/johnluo721/my-note-book-to-be-continued</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/l-layer-neural-net-from-coursera-andrew-ng-course</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aconsapart/exploration-and-discovery-of-claims-data</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/raghuicecraft/raghu-portos-notebook</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/murphyzhang/he-yang-clicks-here-001</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/festa78/simple-xgboost-lb0-269</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/vivster/claim-rates-for-categorical-and-binary-variables</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/kinetics-energy-features-in-keras-neural-net</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/liedision/keras-example</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/deepblack/smote-and-randomforest</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rbales/safedriver-linear-regression-xgboost</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/kinetic-features-xgb20-fold-classifier-script</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/pappukrjha/eda-001</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/convert-binary-to-categorical</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/brandnewkinetics</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aharless/noisy-genetic-pseudo-cv</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/humm-float-integer-why-not-categorical</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/deepak9001/xgboost</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kailex/recursive-feature-elimination-with-lgbm</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/apoddar2008/first-try-in-kaggle-insurance</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/maxhalford/lightgbm-ensemble-0-282</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/mizioan/data-exploration-assisting-kernel-tensorflow</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bekaaa/redfining-features-data-types</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/off-example-of-cv</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ashwinsr321/reducing-insurance-burden-on-safe-drivers</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/marugari/why-don-t-we-use-sklearn-metrics-roc-auc-score</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/sudhirnl7/simple-logistic-model</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bhuvaneshwaran/porto-seguro-s-random-forest-classifier</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/headsortails/steering-wheel-of-fortune-porto-seguro-eda</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/arthurtok/interactive-porto-insights-a-plot-ly-tutorial</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/batzner/gini-coefficient-an-intuitive-explanation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/the1owl/forza-baseline</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/yekenot/simple-stacker-lb-0-284</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rshally/porto-xgb-lgb-kfold-lb-0-282</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/pnagel/reconstruction-of-ps-reg-03</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bertcarremans/data-preparation-exploration</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ogrellier/xgb-classifier-upsampling-lb-0-283</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aharless/xgboost-cv-lb-284</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/captcalculator/r-xgboost-with-caret-tuning-and-gini-score</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/sudosudoohio/stratified-kfold-xgboost-eda-tutorial-0-281</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tilii7/dimensionality-reduction-pca-tsne</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/pavetr/stacking-lb-0-285</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tezdhar/faster-gini-calculation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/anokas/simple-xgboost-btb-0-27</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/peatle/eda-investigating-trends</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/captcalculator/logistic-regression-and-roc-curve-primer</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/captcalculator/a-very-extensive-porto-exploratory-analysis</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kevinbonnes/xgboost-starter-0-280</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ogrellier/noise-analysis-of-porto-seguro-s-features</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/cpmpml/extremely-fast-gini-computation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/asindico/porto-seguro-the-essential-kickstarter</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tilii7/keras-averaging-runs-gini-early-stopping</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/scirpus/big-gp</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/kinetic-and-transforms-0-482-up-the-board</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ogrellier/python-target-encoding-for-categorical-features</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tebanieo/porto-they-will-claim</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tilii7/bayesian-optimization-of-xgboost-parameters</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kueipo/base-on-froza-pascal-single-xgb-lb-0-284</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/captcalculator/quick-get-on-lb-before-smart-people-get-here</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/hireme/start-with-the-boost</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/axelderomblay/running-mlbox-auto-ml-package-porto-seguro</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tilii7/hyperparameter-grid-search-with-xgboost</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ievgenvp/lgbm-custom-randomizedsearchcv-lb-283</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/shaz13/beginner-friendly-eda-porto-s-safe-driver</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/the1owl/forza-baseline-tensorflow-example</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/youhanlee/eda-stratifiedshufflesplit-xgboost-for-starter</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/johnoliverjones/naive-bayesian-network-with-7-features</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/zusmani/lgb-esemble-xgb-be-in-top-100-with-lb-0-285</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kueipo/simple-safe-driver-prediction-eda</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/antonaks/first-steps-with-xgboost-model-0-27</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tunguz/xgb-20fold-classifier-upsampling</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/alexandrudaia/robust-ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/eikedehling/tune-and-compare-xgb-lightgbm-rf-with-hyperopt</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/snowdog/old-school-nnet</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/the1owl/forza-baseline-lightgbm-example</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tilii7/features-we-don-t-need-no-stinking-features</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ogrellier/scale-pos-weight-vs-duplication</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kueipo/stratifiedshufflesplit-xgb</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/infinitewing/k-fold-cv-xgboost-example-0-28</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/kostya17/simple-approach-to-handle-missing-values</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/bhavesh302/xgb-onehot-encoding-lb-0-281</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/categorical-variables-feature-tree-optimization</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aharless/simple-catboost-cv-lb-281</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/the1owl/forza-baseline-catboost-example</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ogrellier/lgbm-regularized-random-forest</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/gini-keras-callback-earlystopping-validation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/justinnafe/porto-safe-driver-eda</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/qmaruf/find-already-one-hot-encoded-features</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ms27817/ps-ind-16-bin-ps-ind-17-bin-and-ps-ind-18-bin</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aharless/lightgbm-cv-lb-282</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/scirpus/safedriver-gp-clustering</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/aharless/stacking-with-log-odds-and-no-intercept</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/anuragmaravi/eda-porto-seguro-s-safe-driver-prediction</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/ogrellier/simple-feature-scorer</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/felipeleiteantunes/h2o-ai-from-linear-models-to-deep-learning</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/the1owl/0-290-cv-metric</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/camnugent/deep-neural-network-insurance-claims-0-268</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tilii7/boruta-feature-elimination</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/fabiendaniel/porto-seguro-s-eda</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/phamquoc94/portal-exploration</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rspadim/adversarial-validation-porto-seguro</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/scirpus/a-very-basic-autoencoder</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jeru666/gradient-boosting-importance-with-new-features</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/cbrioso/exploratory-data-analysis-in-a-few-lines-of-code</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/viveksrinivasan/exploratory-data-analysis-on-porto</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/sudhirnl7/simple-logistic-model-lb-0-269</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/tendolkar3/no-magic-0-283-lb-detailed-w-data-exploration</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/neviadomski/data-exploration-porto-seguro-s-safe-driver</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/akashdeepjassal/simple-keras-mlp</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/numberswithkartik/pca-logistic-and-neural-network-lets-ensemble</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jmbull/pre-processor</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/lucifer19/porto-seguro-s-safe-driver-prediction-speedml</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/code1110/safedriver-data-cleaning-visualization</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/rpygamer/feature-engineering</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/jy93630/basic-statistical-exporation</t>
+  </si>
+  <si>
+    <t>https://www.kaggle.com/nhirons/simple-visualizations-of-the-impact-of-null-values</t>
+  </si>
+  <si>
+    <t>Preprocessing</t>
+  </si>
+  <si>
+    <t>Nullcheck</t>
+  </si>
+  <si>
+    <t>Missing value check</t>
+  </si>
+  <si>
+    <t>ps_ind_02_cat        216
+ps_ind_04_cat         83
+ps_ind_05_cat       5809
+ps_reg_03         107772
+ps_car_01_cat        107
+ps_car_02_cat          5
+ps_car_03_cat     411231
+ps_car_05_cat     266551
+ps_car_07_cat      11489
+ps_car_09_cat        569
+ps_car_11              5
+ps_car_12              1
+ps_car_14          42620</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no nulls </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +665,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,25 +710,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -487,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA78B995-DAE4-4EE9-9C1D-F7707D9ED976}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,181 +1066,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="5"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="5"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="5"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -692,4 +1257,973 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3B588A-5561-4056-B949-A3AA3BB98EC2}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B173"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:A165"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="76.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>127</v>
+      </c>
+      <c r="B103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>180</v>
+      </c>
+      <c r="B157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>184</v>
+      </c>
+      <c r="B161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>185</v>
+      </c>
+      <c r="B162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="B165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A173" xr:uid="{65695C3B-87C4-415D-BA38-FC92B7FEEDFB}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter val="*explorat*"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="A164" r:id="rId1" xr:uid="{21B86961-A692-4FE9-BDAC-42FB620D5C4D}"/>
+    <hyperlink ref="A46" r:id="rId2" xr:uid="{865E0251-88CE-4E52-A53B-08B1D6A0697B}"/>
+    <hyperlink ref="A165" r:id="rId3" xr:uid="{9B54E68D-01BE-4DAF-9366-C14CC901D33A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112923F-71B9-4992-AC56-4A9059418A5E}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sindhuja\Documents\GitHub\Machine-Learning-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linkarc/Documents/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7236" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">links!$A$1:$A$173</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="208">
   <si>
     <t>ML Project</t>
   </si>
@@ -663,11 +669,14 @@
   <si>
     <t>desc</t>
   </si>
+  <si>
+    <t>data type check</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,16 +720,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,16 +1083,16 @@
       <selection activeCell="B8" sqref="B8:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1109,7 +1118,7 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1129,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1129,7 +1138,7 @@
       <c r="D4" s="8"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1147,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1156,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1156,7 +1165,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1171,7 +1180,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -1182,7 +1191,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1200,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1209,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1209,7 +1218,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1218,7 +1227,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
@@ -1227,7 +1236,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1242,7 +1251,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1251,7 +1260,7 @@
       <c r="D16" s="8"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1279,244 +1288,244 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A46" sqref="A46:A165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
@@ -1524,42 +1533,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -1567,27 +1576,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -1595,97 +1604,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -1693,72 +1702,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -1766,57 +1775,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -1824,272 +1833,272 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -2097,22 +2106,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -2120,7 +2129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -2128,12 +2137,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>187</v>
       </c>
@@ -2141,7 +2150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
         <v>188</v>
       </c>
@@ -2149,42 +2158,42 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>196</v>
       </c>
@@ -2211,23 +2220,23 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>202</v>
       </c>
@@ -2241,7 +2250,7 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>205</v>
       </c>
@@ -2261,7 +2270,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>198</v>
       </c>
@@ -2270,10 +2279,12 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="195" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>199</v>
       </c>

--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Fall_2017\ML\Proj\Machine-Learning-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sindhuja\Documents\GitHub\Machine-Learning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="2" xr2:uid="{2C7E0BC7-1FC7-4403-A12E-917445CA14A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7236" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">links!$A$1:$A$173</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="207">
   <si>
     <t>ML Project</t>
   </si>
@@ -648,11 +648,26 @@
   <si>
     <t xml:space="preserve">no nulls </t>
   </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>mrid</t>
+  </si>
+  <si>
+    <t>Arch</t>
+  </si>
+  <si>
+    <t>Techniques used</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -714,17 +729,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -734,6 +743,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1049,197 +1067,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA78B995-DAE4-4EE9-9C1D-F7707D9ED976}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8:B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="8"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="8" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="2"/>
     </row>
   </sheetData>
@@ -1260,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E3B588A-5561-4056-B949-A3AA3BB98EC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B173"/>
   <sheetViews>
@@ -1268,280 +1286,280 @@
       <selection activeCell="A46" sqref="A46:A165"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>78</v>
       </c>
@@ -1549,27 +1567,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>83</v>
       </c>
@@ -1577,97 +1595,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>102</v>
       </c>
@@ -1675,72 +1693,72 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>116</v>
       </c>
@@ -1748,57 +1766,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>127</v>
       </c>
@@ -1806,272 +1824,272 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>180</v>
       </c>
@@ -2079,22 +2097,22 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>184</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>185</v>
       </c>
@@ -2110,69 +2128,69 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="5" t="s">
         <v>187</v>
       </c>
       <c r="B164" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="7" t="s">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B165" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>196</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A173" xr:uid="{65695C3B-87C4-415D-BA38-FC92B7FEEDFB}">
+  <autoFilter ref="A1:A173">
     <filterColumn colId="0">
       <customFilters>
         <customFilter val="*explorat*"/>
@@ -2180,50 +2198,99 @@
     </filterColumn>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="A164" r:id="rId1" xr:uid="{21B86961-A692-4FE9-BDAC-42FB620D5C4D}"/>
-    <hyperlink ref="A46" r:id="rId2" xr:uid="{865E0251-88CE-4E52-A53B-08B1D6A0697B}"/>
-    <hyperlink ref="A165" r:id="rId3" xr:uid="{9B54E68D-01BE-4DAF-9366-C14CC901D33A}"/>
+    <hyperlink ref="A164" r:id="rId1"/>
+    <hyperlink ref="A46" r:id="rId2"/>
+    <hyperlink ref="A165" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2112923F-71B9-4992-AC56-4A9059418A5E}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="I3" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="195" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>200</v>
       </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I3:J3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>